--- a/artfynd/A 11077-2025 artfynd.xlsx
+++ b/artfynd/A 11077-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1150,111 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131191459</v>
+      </c>
+      <c r="B6" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Sjöberga 1:2, Ög</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>567527</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6509582</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11077-2025 artfynd.xlsx
+++ b/artfynd/A 11077-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,6 +1255,111 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131257158</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sjöberga 1:2, Ög</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>567581</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6509575</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
